--- a/assets/templates/模板.xlsx
+++ b/assets/templates/模板.xlsx
@@ -1,10 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:dbsheet="http://web.wps.cn/et/2021/dbsheet">
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="27945" windowHeight="12375"/>
+    <workbookView windowWidth="28800" windowHeight="12375"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -31,7 +31,7 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="18">
   <si>
-    <t>5月已完成汇总</t>
+    <t>12月已完成汇总</t>
   </si>
   <si>
     <t>与管理平台一致</t>
@@ -96,27 +96,25 @@
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="176" formatCode="yyyy&quot;年&quot;m&quot;月&quot;d&quot;日&quot;;@"/>
   </numFmts>
-  <fonts count="32">
+  <fonts count="33">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color indexed="8"/>
-      <name val="Arial"/>
-      <family val="2"/>
-      <charset val="0"/>
     </font>
     <font>
       <sz val="10"/>
       <color indexed="8"/>
       <name val="Arial"/>
-      <family val="2"/>
-      <charset val="0"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color indexed="8"/>
+      <name val="Arial"/>
+      <charset val="134"/>
     </font>
     <font>
       <b/>
@@ -142,8 +140,7 @@
       <sz val="12"/>
       <color rgb="FF8091A5"/>
       <name val="Arial"/>
-      <family val="2"/>
-      <charset val="0"/>
+      <charset val="134"/>
     </font>
     <font>
       <b/>
@@ -153,6 +150,13 @@
       <charset val="134"/>
     </font>
     <font>
+      <b/>
+      <sz val="12"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color indexed="8"/>
       <name val="宋体"/>
@@ -170,20 +174,18 @@
       <sz val="11"/>
       <color rgb="FF000000"/>
       <name val="宋体"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Arial"/>
       <charset val="134"/>
     </font>
     <font>
       <sz val="10.5"/>
       <color rgb="FF10141A"/>
       <name val="Segoe UI"/>
-      <family val="2"/>
-      <charset val="0"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="12"/>
-      <color theme="0"/>
-      <name val="宋体"/>
       <charset val="134"/>
     </font>
     <font>
@@ -191,7 +193,7 @@
       <sz val="11"/>
       <color rgb="FF0000FF"/>
       <name val="宋体"/>
-      <charset val="0"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -531,7 +533,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="19">
+  <borders count="17">
     <border>
       <left/>
       <right/>
@@ -571,51 +573,6 @@
     </border>
     <border>
       <left style="thin">
-        <color indexed="8"/>
-      </left>
-      <right style="thin">
-        <color auto="1"/>
-      </right>
-      <top style="thin">
-        <color auto="1"/>
-      </top>
-      <bottom style="thin">
-        <color auto="1"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color auto="1"/>
-      </left>
-      <right style="thin">
-        <color auto="1"/>
-      </right>
-      <top style="thin">
-        <color auto="1"/>
-      </top>
-      <bottom style="thin">
-        <color auto="1"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color auto="1"/>
-      </left>
-      <right style="thin">
-        <color auto="1"/>
-      </right>
-      <top style="thin">
-        <color auto="1"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="8"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
         <color auto="1"/>
       </left>
       <right style="thin">
@@ -631,6 +588,36 @@
     </border>
     <border>
       <left style="thin">
+        <color indexed="8"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
         <color auto="1"/>
       </left>
       <right style="thin">
@@ -655,22 +642,7 @@
         <color auto="1"/>
       </top>
       <bottom style="thin">
-        <color indexed="0"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color auto="1"/>
-      </left>
-      <right style="thin">
         <color indexed="8"/>
-      </right>
-      <top style="thin">
-        <color auto="1"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="0"/>
       </bottom>
       <diagonal/>
     </border>
@@ -807,226 +779,219 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="11" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="9" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="4" borderId="14" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="5" borderId="15" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="5" borderId="14" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="6" borderId="16" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="17" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="18" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="31" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="31" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="31" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="31" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="31" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="31" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="31" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="31" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="31" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="31" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="31" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="31" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="4" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="5" borderId="13" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="5" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="6" borderId="14" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="15" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="16" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="31" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="32" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="32" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="31" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="31" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="32" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="32" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="31" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="31" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="32" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="32" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="31" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="31" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="32" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="32" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="31" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="31" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="32" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="32" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="31" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="31" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="32" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="32" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="31" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="33">
+  <cellXfs count="30">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="2" borderId="4" xfId="6" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="31" fontId="1" fillId="2" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="2" borderId="5" xfId="6" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="31" fontId="12" fillId="2" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="11" fillId="2" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="10" fillId="2" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="1" fillId="2" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="176" fontId="2" fillId="2" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1340,49 +1305,49 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="B2:O28"/>
+  <dimension ref="B2:O27"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A14" workbookViewId="0">
-      <selection activeCell="E30" sqref="E30"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="B5" sqref="B5:N23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="7.875" defaultRowHeight="21.95" customHeight="1"/>
   <cols>
-    <col min="1" max="1" width="7.875" style="1"/>
-    <col min="2" max="2" width="22.375" style="1" customWidth="1"/>
-    <col min="3" max="3" width="13.25" style="1" customWidth="1"/>
-    <col min="4" max="4" width="15.25" style="1" customWidth="1"/>
-    <col min="5" max="5" width="38.75" style="1" customWidth="1"/>
-    <col min="6" max="6" width="7" style="1" customWidth="1"/>
-    <col min="7" max="7" width="7.75" style="1" customWidth="1"/>
-    <col min="8" max="9" width="13.5" style="1" customWidth="1"/>
-    <col min="10" max="10" width="7.75" style="1" customWidth="1"/>
-    <col min="11" max="12" width="10" style="1" customWidth="1"/>
-    <col min="13" max="13" width="13.5" style="1" customWidth="1"/>
-    <col min="14" max="14" width="10" style="1" customWidth="1"/>
-    <col min="15" max="15" width="13.25" style="1" customWidth="1"/>
-    <col min="16" max="16384" width="7.875" style="1"/>
+    <col min="1" max="1" width="7.875" style="4"/>
+    <col min="2" max="2" width="38.8666666666667" style="4" customWidth="1"/>
+    <col min="3" max="3" width="13.25" style="4" customWidth="1"/>
+    <col min="4" max="4" width="58.0916666666667" style="4" customWidth="1"/>
+    <col min="5" max="5" width="38.75" style="4" customWidth="1"/>
+    <col min="6" max="6" width="7.49166666666667" style="4" customWidth="1"/>
+    <col min="7" max="7" width="8.34166666666667" style="4" customWidth="1"/>
+    <col min="8" max="9" width="15.9083333333333" style="4" customWidth="1"/>
+    <col min="10" max="10" width="8.34166666666667" style="4" customWidth="1"/>
+    <col min="11" max="12" width="10" style="4" customWidth="1"/>
+    <col min="13" max="13" width="15.9083333333333" style="4" customWidth="1"/>
+    <col min="14" max="14" width="10" style="4" customWidth="1"/>
+    <col min="15" max="15" width="13.25" style="4" customWidth="1"/>
+    <col min="16" max="16384" width="7.875" style="4"/>
   </cols>
   <sheetData>
-    <row r="2" s="1" customFormat="1" ht="27" customHeight="1" spans="2:15">
-      <c r="B2" s="6" t="s">
+    <row r="2" ht="27" customHeight="1" spans="2:15">
+      <c r="B2" s="5" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="7"/>
-      <c r="D2" s="7"/>
-      <c r="E2" s="7"/>
-      <c r="F2" s="7"/>
-      <c r="G2" s="7"/>
-      <c r="H2" s="7"/>
-      <c r="I2" s="7"/>
-      <c r="J2" s="7"/>
-      <c r="K2" s="7"/>
-      <c r="L2" s="7"/>
-      <c r="M2" s="7"/>
-      <c r="N2" s="7"/>
-      <c r="O2" s="21"/>
-    </row>
-    <row r="3" s="2" customFormat="1" ht="27" customHeight="1" spans="2:15">
+      <c r="C2" s="6"/>
+      <c r="D2" s="6"/>
+      <c r="E2" s="6"/>
+      <c r="F2" s="6"/>
+      <c r="G2" s="6"/>
+      <c r="H2" s="6"/>
+      <c r="I2" s="6"/>
+      <c r="J2" s="6"/>
+      <c r="K2" s="6"/>
+      <c r="L2" s="6"/>
+      <c r="M2" s="6"/>
+      <c r="N2" s="6"/>
+      <c r="O2" s="7"/>
+    </row>
+    <row r="3" s="1" customFormat="1" ht="27" customHeight="1" spans="2:15">
       <c r="B3" s="8" t="s">
         <v>1</v>
       </c>
@@ -1404,450 +1369,432 @@
       <c r="L3" s="9"/>
       <c r="M3" s="9"/>
       <c r="N3" s="9"/>
-      <c r="O3" s="22" t="s">
+      <c r="O3" s="10" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="4" s="1" customFormat="1" customHeight="1" spans="2:15">
-      <c r="B4" s="10" t="s">
+    <row r="4" customHeight="1" spans="2:15">
+      <c r="B4" s="11" t="s">
         <v>3</v>
       </c>
-      <c r="C4" s="11" t="s">
+      <c r="C4" s="12" t="s">
         <v>4</v>
       </c>
-      <c r="D4" s="12" t="s">
+      <c r="D4" s="13" t="s">
         <v>5</v>
       </c>
-      <c r="E4" s="12" t="s">
+      <c r="E4" s="13" t="s">
         <v>6</v>
       </c>
-      <c r="F4" s="12" t="s">
+      <c r="F4" s="13" t="s">
         <v>7</v>
       </c>
-      <c r="G4" s="12" t="s">
+      <c r="G4" s="13" t="s">
         <v>8</v>
       </c>
-      <c r="H4" s="12" t="s">
+      <c r="H4" s="13" t="s">
         <v>9</v>
       </c>
-      <c r="I4" s="12" t="s">
+      <c r="I4" s="13" t="s">
         <v>10</v>
       </c>
-      <c r="J4" s="12" t="s">
+      <c r="J4" s="13" t="s">
         <v>11</v>
       </c>
-      <c r="K4" s="12" t="s">
+      <c r="K4" s="13" t="s">
         <v>12</v>
       </c>
-      <c r="L4" s="12" t="s">
+      <c r="L4" s="13" t="s">
         <v>13</v>
       </c>
-      <c r="M4" s="12" t="s">
+      <c r="M4" s="13" t="s">
         <v>14</v>
       </c>
-      <c r="N4" s="23" t="s">
+      <c r="N4" s="14" t="s">
         <v>15</v>
       </c>
-      <c r="O4" s="24" t="s">
+      <c r="O4" s="15" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="5" s="3" customFormat="1" customHeight="1" spans="2:15">
-      <c r="B5" s="13"/>
-      <c r="C5" s="14"/>
-      <c r="D5" s="15"/>
-      <c r="E5" s="16"/>
-      <c r="F5" s="17"/>
-      <c r="G5" s="17"/>
-      <c r="H5" s="18"/>
-      <c r="I5" s="18"/>
-      <c r="J5" s="25"/>
-      <c r="K5" s="26"/>
-      <c r="L5" s="26"/>
-      <c r="M5" s="18"/>
-      <c r="N5" s="26"/>
-      <c r="O5" s="27"/>
-    </row>
-    <row r="6" s="3" customFormat="1" customHeight="1" spans="2:15">
-      <c r="B6" s="13"/>
-      <c r="C6" s="14"/>
-      <c r="D6" s="15"/>
-      <c r="E6" s="16"/>
-      <c r="F6" s="17"/>
-      <c r="G6" s="17"/>
-      <c r="H6" s="18"/>
-      <c r="I6" s="18"/>
-      <c r="J6" s="25"/>
-      <c r="K6" s="26"/>
-      <c r="L6" s="26"/>
-      <c r="M6" s="18"/>
-      <c r="N6" s="26"/>
-      <c r="O6" s="27"/>
-    </row>
-    <row r="7" s="3" customFormat="1" customHeight="1" spans="2:15">
-      <c r="B7" s="13"/>
-      <c r="C7" s="14"/>
-      <c r="D7" s="15"/>
-      <c r="E7" s="16"/>
-      <c r="F7" s="17"/>
-      <c r="G7" s="17"/>
-      <c r="H7" s="18"/>
-      <c r="I7" s="18"/>
-      <c r="J7" s="25"/>
-      <c r="K7" s="26"/>
-      <c r="L7" s="26"/>
-      <c r="M7" s="18"/>
-      <c r="N7" s="26"/>
-      <c r="O7" s="27"/>
-    </row>
-    <row r="8" s="4" customFormat="1" customHeight="1" spans="2:15">
-      <c r="B8" s="13"/>
-      <c r="C8" s="14"/>
-      <c r="D8" s="15"/>
-      <c r="E8" s="16"/>
-      <c r="F8" s="17"/>
-      <c r="G8" s="17"/>
-      <c r="H8" s="18"/>
-      <c r="I8" s="18"/>
-      <c r="J8" s="25"/>
-      <c r="K8" s="26"/>
-      <c r="L8" s="26"/>
-      <c r="M8" s="18"/>
-      <c r="N8" s="26"/>
-      <c r="O8" s="27"/>
-    </row>
-    <row r="9" s="4" customFormat="1" customHeight="1" spans="2:15">
-      <c r="B9" s="13"/>
-      <c r="C9" s="14"/>
-      <c r="D9" s="15"/>
-      <c r="E9" s="16"/>
-      <c r="F9" s="17"/>
-      <c r="G9" s="17"/>
-      <c r="H9" s="18"/>
-      <c r="I9" s="18"/>
-      <c r="J9" s="25"/>
-      <c r="K9" s="26"/>
-      <c r="L9" s="26"/>
-      <c r="M9" s="18"/>
-      <c r="N9" s="26"/>
-      <c r="O9" s="27"/>
-    </row>
-    <row r="10" s="4" customFormat="1" customHeight="1" spans="2:15">
-      <c r="B10" s="13"/>
-      <c r="C10" s="14"/>
-      <c r="D10" s="15"/>
-      <c r="E10" s="16"/>
-      <c r="F10" s="17"/>
-      <c r="G10" s="17"/>
-      <c r="H10" s="18"/>
-      <c r="I10" s="18"/>
-      <c r="J10" s="25"/>
-      <c r="K10" s="26"/>
-      <c r="L10" s="26"/>
-      <c r="M10" s="18"/>
-      <c r="N10" s="26"/>
-      <c r="O10" s="27"/>
-    </row>
-    <row r="11" s="4" customFormat="1" customHeight="1" spans="2:15">
-      <c r="B11" s="13"/>
-      <c r="C11" s="14"/>
-      <c r="D11" s="15"/>
-      <c r="E11" s="16"/>
-      <c r="F11" s="17"/>
-      <c r="G11" s="17"/>
-      <c r="H11" s="18"/>
-      <c r="I11" s="18"/>
-      <c r="J11" s="25"/>
-      <c r="K11" s="26"/>
-      <c r="L11" s="26"/>
-      <c r="M11" s="18"/>
-      <c r="N11" s="26"/>
-      <c r="O11" s="27"/>
-    </row>
-    <row r="12" s="4" customFormat="1" customHeight="1" spans="2:15">
-      <c r="B12" s="13"/>
-      <c r="C12" s="14"/>
-      <c r="D12" s="15"/>
-      <c r="E12" s="16"/>
-      <c r="F12" s="17"/>
-      <c r="G12" s="17"/>
-      <c r="H12" s="18"/>
-      <c r="I12" s="18"/>
-      <c r="J12" s="25"/>
-      <c r="K12" s="26"/>
-      <c r="L12" s="26"/>
-      <c r="M12" s="18"/>
-      <c r="N12" s="26"/>
-      <c r="O12" s="27"/>
-    </row>
-    <row r="13" s="4" customFormat="1" customHeight="1" spans="2:15">
-      <c r="B13" s="13"/>
-      <c r="C13" s="14"/>
-      <c r="D13" s="15"/>
-      <c r="E13" s="16"/>
-      <c r="F13" s="17"/>
-      <c r="G13" s="17"/>
-      <c r="H13" s="18"/>
-      <c r="I13" s="18"/>
-      <c r="J13" s="25"/>
-      <c r="K13" s="26"/>
-      <c r="L13" s="26"/>
-      <c r="M13" s="18"/>
-      <c r="N13" s="26"/>
-      <c r="O13" s="27"/>
-    </row>
-    <row r="14" s="4" customFormat="1" customHeight="1" spans="2:15">
-      <c r="B14" s="13"/>
-      <c r="C14" s="14"/>
-      <c r="D14" s="15"/>
-      <c r="E14" s="16"/>
-      <c r="F14" s="17"/>
-      <c r="G14" s="17"/>
-      <c r="H14" s="18"/>
-      <c r="I14" s="18"/>
-      <c r="J14" s="25"/>
-      <c r="K14" s="26"/>
-      <c r="L14" s="26"/>
-      <c r="M14" s="18"/>
-      <c r="N14" s="26"/>
-      <c r="O14" s="27"/>
-    </row>
-    <row r="15" s="4" customFormat="1" customHeight="1" spans="2:15">
-      <c r="B15" s="13"/>
-      <c r="C15" s="14"/>
-      <c r="D15" s="15"/>
-      <c r="E15" s="16"/>
-      <c r="F15" s="17"/>
-      <c r="G15" s="17"/>
-      <c r="H15" s="18"/>
-      <c r="I15" s="18"/>
-      <c r="J15" s="25"/>
-      <c r="K15" s="26"/>
-      <c r="L15" s="26"/>
-      <c r="M15" s="18"/>
-      <c r="N15" s="26"/>
-      <c r="O15" s="27"/>
-    </row>
-    <row r="16" s="5" customFormat="1" customHeight="1" spans="2:15">
-      <c r="B16" s="13"/>
-      <c r="C16" s="14"/>
-      <c r="D16" s="15"/>
-      <c r="E16" s="16"/>
-      <c r="F16" s="17"/>
-      <c r="G16" s="17"/>
-      <c r="H16" s="18"/>
-      <c r="I16" s="18"/>
-      <c r="J16" s="25"/>
-      <c r="K16" s="26"/>
-      <c r="L16" s="26"/>
-      <c r="M16" s="18"/>
-      <c r="N16" s="26"/>
-      <c r="O16" s="27"/>
-    </row>
-    <row r="17" s="5" customFormat="1" customHeight="1" spans="2:15">
-      <c r="B17" s="13"/>
-      <c r="C17" s="14"/>
-      <c r="D17" s="15"/>
-      <c r="E17" s="16"/>
-      <c r="F17" s="17"/>
-      <c r="G17" s="17"/>
-      <c r="H17" s="18"/>
-      <c r="I17" s="18"/>
-      <c r="J17" s="25"/>
-      <c r="K17" s="26"/>
-      <c r="L17" s="26"/>
-      <c r="M17" s="18"/>
-      <c r="N17" s="26"/>
-      <c r="O17" s="27"/>
-    </row>
-    <row r="18" s="5" customFormat="1" customHeight="1" spans="2:15">
-      <c r="B18" s="13"/>
-      <c r="C18" s="14"/>
-      <c r="D18" s="15"/>
-      <c r="E18" s="16"/>
-      <c r="F18" s="17"/>
-      <c r="G18" s="17"/>
-      <c r="H18" s="18"/>
-      <c r="I18" s="18"/>
-      <c r="J18" s="25"/>
-      <c r="K18" s="26"/>
-      <c r="L18" s="26"/>
-      <c r="M18" s="18"/>
-      <c r="N18" s="26"/>
-      <c r="O18" s="27"/>
-    </row>
-    <row r="19" s="5" customFormat="1" customHeight="1" spans="2:15">
-      <c r="B19" s="13"/>
-      <c r="C19" s="14"/>
-      <c r="D19" s="15"/>
-      <c r="E19" s="16"/>
-      <c r="F19" s="17"/>
-      <c r="G19" s="17"/>
-      <c r="H19" s="18"/>
-      <c r="I19" s="18"/>
-      <c r="J19" s="25"/>
-      <c r="K19" s="26"/>
-      <c r="L19" s="26"/>
-      <c r="M19" s="18"/>
-      <c r="N19" s="26"/>
-      <c r="O19" s="27"/>
-    </row>
-    <row r="20" s="5" customFormat="1" customHeight="1" spans="2:15">
-      <c r="B20" s="13"/>
-      <c r="C20" s="14"/>
-      <c r="D20" s="15"/>
-      <c r="E20" s="16"/>
-      <c r="F20" s="17"/>
-      <c r="G20" s="17"/>
-      <c r="H20" s="18"/>
-      <c r="I20" s="18"/>
-      <c r="J20" s="25"/>
-      <c r="K20" s="26"/>
-      <c r="L20" s="26"/>
-      <c r="M20" s="18"/>
-      <c r="N20" s="26"/>
-      <c r="O20" s="27"/>
-    </row>
-    <row r="21" s="5" customFormat="1" customHeight="1" spans="2:15">
-      <c r="B21" s="13"/>
-      <c r="C21" s="14"/>
-      <c r="D21" s="15"/>
-      <c r="E21" s="16"/>
-      <c r="F21" s="17"/>
-      <c r="G21" s="17"/>
-      <c r="H21" s="18"/>
-      <c r="I21" s="18"/>
-      <c r="J21" s="25"/>
-      <c r="K21" s="26"/>
-      <c r="L21" s="26"/>
-      <c r="M21" s="18"/>
-      <c r="N21" s="26"/>
-      <c r="O21" s="27"/>
-    </row>
-    <row r="22" s="5" customFormat="1" customHeight="1" spans="2:15">
-      <c r="B22" s="13"/>
-      <c r="C22" s="14"/>
-      <c r="D22" s="15"/>
-      <c r="E22" s="16"/>
-      <c r="F22" s="17"/>
-      <c r="G22" s="17"/>
-      <c r="H22" s="18"/>
-      <c r="I22" s="18"/>
-      <c r="J22" s="25"/>
-      <c r="K22" s="26"/>
-      <c r="L22" s="26"/>
-      <c r="M22" s="18"/>
-      <c r="N22" s="26"/>
-      <c r="O22" s="27"/>
-    </row>
-    <row r="23" s="5" customFormat="1" customHeight="1" spans="2:15">
-      <c r="B23" s="13"/>
-      <c r="C23" s="14"/>
-      <c r="D23" s="15"/>
-      <c r="E23" s="16"/>
-      <c r="F23" s="17"/>
-      <c r="G23" s="17"/>
-      <c r="H23" s="18"/>
-      <c r="I23" s="18"/>
-      <c r="J23" s="25"/>
-      <c r="K23" s="26"/>
-      <c r="L23" s="26"/>
-      <c r="M23" s="18"/>
-      <c r="N23" s="26"/>
-      <c r="O23" s="27"/>
-    </row>
-    <row r="24" s="5" customFormat="1" customHeight="1" spans="2:15">
-      <c r="B24" s="13"/>
-      <c r="C24" s="14"/>
-      <c r="D24" s="15"/>
-      <c r="E24" s="16"/>
-      <c r="F24" s="17"/>
-      <c r="G24" s="17"/>
-      <c r="H24" s="18"/>
-      <c r="I24" s="18"/>
-      <c r="J24" s="25"/>
-      <c r="K24" s="26"/>
-      <c r="L24" s="26"/>
-      <c r="M24" s="18"/>
-      <c r="N24" s="26"/>
-      <c r="O24" s="27"/>
-    </row>
-    <row r="25" s="5" customFormat="1" customHeight="1" spans="2:15">
-      <c r="B25" s="13"/>
-      <c r="C25" s="14"/>
-      <c r="D25" s="15"/>
-      <c r="E25" s="16"/>
-      <c r="F25" s="17"/>
-      <c r="G25" s="17"/>
-      <c r="H25" s="18"/>
-      <c r="I25" s="18"/>
-      <c r="J25" s="25"/>
-      <c r="K25" s="28"/>
-      <c r="L25" s="28"/>
-      <c r="M25" s="18"/>
-      <c r="N25" s="28"/>
-      <c r="O25" s="29"/>
-    </row>
-    <row r="26" s="5" customFormat="1" customHeight="1" spans="2:15">
-      <c r="B26" s="13"/>
-      <c r="C26" s="14"/>
-      <c r="D26" s="15"/>
-      <c r="E26" s="16"/>
-      <c r="F26" s="17"/>
-      <c r="G26" s="17"/>
-      <c r="H26" s="18"/>
-      <c r="I26" s="18"/>
-      <c r="J26" s="25"/>
-      <c r="K26" s="28"/>
-      <c r="L26" s="28"/>
-      <c r="M26" s="18"/>
-      <c r="N26" s="28"/>
-      <c r="O26" s="29"/>
-    </row>
-    <row r="27" s="5" customFormat="1" customHeight="1" spans="2:15">
-      <c r="B27" s="13"/>
-      <c r="C27" s="14"/>
-      <c r="D27" s="15"/>
-      <c r="E27" s="16"/>
-      <c r="F27" s="17"/>
-      <c r="G27" s="17"/>
-      <c r="H27" s="18"/>
-      <c r="I27" s="18"/>
-      <c r="J27" s="25"/>
-      <c r="K27" s="28"/>
-      <c r="L27" s="28"/>
-      <c r="M27" s="18"/>
-      <c r="N27" s="28"/>
+    <row r="5" s="2" customFormat="1" customHeight="1" spans="2:15">
+      <c r="B5" s="16"/>
+      <c r="C5" s="17"/>
+      <c r="D5" s="18"/>
+      <c r="E5" s="19"/>
+      <c r="F5" s="20"/>
+      <c r="G5" s="20"/>
+      <c r="H5" s="21"/>
+      <c r="I5" s="21"/>
+      <c r="J5" s="22"/>
+      <c r="K5" s="23"/>
+      <c r="L5" s="23"/>
+      <c r="M5" s="21"/>
+      <c r="N5" s="23"/>
+      <c r="O5" s="24"/>
+    </row>
+    <row r="6" s="2" customFormat="1" customHeight="1" spans="2:15">
+      <c r="B6" s="16"/>
+      <c r="C6" s="17"/>
+      <c r="D6" s="18"/>
+      <c r="E6" s="19"/>
+      <c r="F6" s="20"/>
+      <c r="G6" s="20"/>
+      <c r="H6" s="21"/>
+      <c r="I6" s="21"/>
+      <c r="J6" s="22"/>
+      <c r="K6" s="23"/>
+      <c r="L6" s="23"/>
+      <c r="M6" s="21"/>
+      <c r="N6" s="23"/>
+      <c r="O6" s="24"/>
+    </row>
+    <row r="7" s="2" customFormat="1" customHeight="1" spans="2:15">
+      <c r="B7" s="16"/>
+      <c r="C7" s="17"/>
+      <c r="D7" s="18"/>
+      <c r="E7" s="19"/>
+      <c r="F7" s="20"/>
+      <c r="G7" s="20"/>
+      <c r="H7" s="21"/>
+      <c r="I7" s="21"/>
+      <c r="J7" s="22"/>
+      <c r="K7" s="23"/>
+      <c r="L7" s="23"/>
+      <c r="M7" s="21"/>
+      <c r="N7" s="23"/>
+      <c r="O7" s="24"/>
+    </row>
+    <row r="8" s="2" customFormat="1" customHeight="1" spans="2:15">
+      <c r="B8" s="16"/>
+      <c r="C8" s="17"/>
+      <c r="D8" s="18"/>
+      <c r="E8" s="19"/>
+      <c r="F8" s="20"/>
+      <c r="G8" s="20"/>
+      <c r="H8" s="21"/>
+      <c r="I8" s="21"/>
+      <c r="J8" s="22"/>
+      <c r="K8" s="23"/>
+      <c r="L8" s="23"/>
+      <c r="M8" s="21"/>
+      <c r="N8" s="23"/>
+      <c r="O8" s="24"/>
+    </row>
+    <row r="9" s="2" customFormat="1" customHeight="1" spans="2:15">
+      <c r="B9" s="16"/>
+      <c r="C9" s="17"/>
+      <c r="D9" s="18"/>
+      <c r="E9" s="19"/>
+      <c r="F9" s="20"/>
+      <c r="G9" s="20"/>
+      <c r="H9" s="21"/>
+      <c r="I9" s="21"/>
+      <c r="J9" s="22"/>
+      <c r="K9" s="23"/>
+      <c r="L9" s="23"/>
+      <c r="M9" s="21"/>
+      <c r="N9" s="23"/>
+      <c r="O9" s="24"/>
+    </row>
+    <row r="10" s="3" customFormat="1" customHeight="1" spans="2:15">
+      <c r="B10" s="16"/>
+      <c r="C10" s="17"/>
+      <c r="D10" s="18"/>
+      <c r="E10" s="19"/>
+      <c r="F10" s="20"/>
+      <c r="G10" s="20"/>
+      <c r="H10" s="21"/>
+      <c r="I10" s="21"/>
+      <c r="J10" s="22"/>
+      <c r="K10" s="23"/>
+      <c r="L10" s="23"/>
+      <c r="M10" s="21"/>
+      <c r="N10" s="23"/>
+      <c r="O10" s="24"/>
+    </row>
+    <row r="11" s="3" customFormat="1" customHeight="1" spans="2:15">
+      <c r="B11" s="16"/>
+      <c r="C11" s="17"/>
+      <c r="D11" s="18"/>
+      <c r="E11" s="19"/>
+      <c r="F11" s="20"/>
+      <c r="G11" s="20"/>
+      <c r="H11" s="21"/>
+      <c r="I11" s="21"/>
+      <c r="J11" s="22"/>
+      <c r="K11" s="23"/>
+      <c r="L11" s="23"/>
+      <c r="M11" s="21"/>
+      <c r="N11" s="23"/>
+      <c r="O11" s="24"/>
+    </row>
+    <row r="12" s="3" customFormat="1" customHeight="1" spans="2:15">
+      <c r="B12" s="16"/>
+      <c r="C12" s="17"/>
+      <c r="D12" s="18"/>
+      <c r="E12" s="19"/>
+      <c r="F12" s="20"/>
+      <c r="G12" s="20"/>
+      <c r="H12" s="21"/>
+      <c r="I12" s="21"/>
+      <c r="J12" s="22"/>
+      <c r="K12" s="23"/>
+      <c r="L12" s="23"/>
+      <c r="M12" s="21"/>
+      <c r="N12" s="23"/>
+      <c r="O12" s="24"/>
+    </row>
+    <row r="13" s="3" customFormat="1" customHeight="1" spans="2:15">
+      <c r="B13" s="16"/>
+      <c r="C13" s="17"/>
+      <c r="D13" s="18"/>
+      <c r="E13" s="19"/>
+      <c r="F13" s="20"/>
+      <c r="G13" s="20"/>
+      <c r="H13" s="21"/>
+      <c r="I13" s="21"/>
+      <c r="J13" s="22"/>
+      <c r="K13" s="23"/>
+      <c r="L13" s="23"/>
+      <c r="M13" s="21"/>
+      <c r="N13" s="23"/>
+      <c r="O13" s="24"/>
+    </row>
+    <row r="14" s="3" customFormat="1" customHeight="1" spans="2:15">
+      <c r="B14" s="16"/>
+      <c r="C14" s="17"/>
+      <c r="D14" s="18"/>
+      <c r="E14" s="19"/>
+      <c r="F14" s="20"/>
+      <c r="G14" s="20"/>
+      <c r="H14" s="21"/>
+      <c r="I14" s="21"/>
+      <c r="J14" s="22"/>
+      <c r="K14" s="23"/>
+      <c r="L14" s="23"/>
+      <c r="M14" s="21"/>
+      <c r="N14" s="23"/>
+      <c r="O14" s="24"/>
+    </row>
+    <row r="15" s="3" customFormat="1" customHeight="1" spans="2:15">
+      <c r="B15" s="16"/>
+      <c r="C15" s="17"/>
+      <c r="D15" s="18"/>
+      <c r="E15" s="19"/>
+      <c r="F15" s="20"/>
+      <c r="G15" s="20"/>
+      <c r="H15" s="21"/>
+      <c r="I15" s="21"/>
+      <c r="J15" s="22"/>
+      <c r="K15" s="23"/>
+      <c r="L15" s="23"/>
+      <c r="M15" s="21"/>
+      <c r="N15" s="23"/>
+      <c r="O15" s="24"/>
+    </row>
+    <row r="16" customFormat="1" customHeight="1" spans="2:15">
+      <c r="B16" s="16"/>
+      <c r="C16" s="17"/>
+      <c r="D16" s="18"/>
+      <c r="E16" s="19"/>
+      <c r="F16" s="20"/>
+      <c r="G16" s="20"/>
+      <c r="H16" s="21"/>
+      <c r="I16" s="21"/>
+      <c r="J16" s="22"/>
+      <c r="K16" s="23"/>
+      <c r="L16" s="23"/>
+      <c r="M16" s="21"/>
+      <c r="N16" s="23"/>
+      <c r="O16" s="24"/>
+    </row>
+    <row r="17" customFormat="1" customHeight="1" spans="2:15">
+      <c r="B17" s="16"/>
+      <c r="C17" s="17"/>
+      <c r="D17" s="18"/>
+      <c r="E17" s="19"/>
+      <c r="F17" s="20"/>
+      <c r="G17" s="20"/>
+      <c r="H17" s="21"/>
+      <c r="I17" s="21"/>
+      <c r="J17" s="22"/>
+      <c r="K17" s="23"/>
+      <c r="L17" s="23"/>
+      <c r="M17" s="21"/>
+      <c r="N17" s="23"/>
+      <c r="O17" s="24"/>
+    </row>
+    <row r="18" customFormat="1" customHeight="1" spans="2:15">
+      <c r="B18" s="16"/>
+      <c r="C18" s="17"/>
+      <c r="D18" s="18"/>
+      <c r="E18" s="19"/>
+      <c r="F18" s="20"/>
+      <c r="G18" s="20"/>
+      <c r="H18" s="21"/>
+      <c r="I18" s="21"/>
+      <c r="J18" s="22"/>
+      <c r="K18" s="23"/>
+      <c r="L18" s="23"/>
+      <c r="M18" s="21"/>
+      <c r="N18" s="23"/>
+      <c r="O18" s="24"/>
+    </row>
+    <row r="19" customFormat="1" customHeight="1" spans="2:15">
+      <c r="B19" s="16"/>
+      <c r="C19" s="17"/>
+      <c r="D19" s="18"/>
+      <c r="E19" s="19"/>
+      <c r="F19" s="20"/>
+      <c r="G19" s="20"/>
+      <c r="H19" s="21"/>
+      <c r="I19" s="21"/>
+      <c r="J19" s="22"/>
+      <c r="K19" s="23"/>
+      <c r="L19" s="23"/>
+      <c r="M19" s="21"/>
+      <c r="N19" s="23"/>
+      <c r="O19" s="24"/>
+    </row>
+    <row r="20" customFormat="1" customHeight="1" spans="2:15">
+      <c r="B20" s="16"/>
+      <c r="C20" s="17"/>
+      <c r="D20" s="18"/>
+      <c r="E20" s="19"/>
+      <c r="F20" s="20"/>
+      <c r="G20" s="20"/>
+      <c r="H20" s="21"/>
+      <c r="I20" s="21"/>
+      <c r="J20" s="22"/>
+      <c r="K20" s="23"/>
+      <c r="L20" s="23"/>
+      <c r="M20" s="21"/>
+      <c r="N20" s="23"/>
+      <c r="O20" s="24"/>
+    </row>
+    <row r="21" customFormat="1" customHeight="1" spans="2:15">
+      <c r="B21" s="16"/>
+      <c r="C21" s="17"/>
+      <c r="D21" s="18"/>
+      <c r="E21" s="19"/>
+      <c r="F21" s="20"/>
+      <c r="G21" s="20"/>
+      <c r="H21" s="21"/>
+      <c r="I21" s="21"/>
+      <c r="J21" s="22"/>
+      <c r="K21" s="23"/>
+      <c r="L21" s="23"/>
+      <c r="M21" s="21"/>
+      <c r="N21" s="23"/>
+      <c r="O21" s="24"/>
+    </row>
+    <row r="22" customFormat="1" customHeight="1" spans="2:15">
+      <c r="B22" s="16"/>
+      <c r="C22" s="17"/>
+      <c r="D22" s="18"/>
+      <c r="E22" s="19"/>
+      <c r="F22" s="20"/>
+      <c r="G22" s="20"/>
+      <c r="H22" s="21"/>
+      <c r="I22" s="21"/>
+      <c r="J22" s="22"/>
+      <c r="K22" s="23"/>
+      <c r="L22" s="23"/>
+      <c r="M22" s="21"/>
+      <c r="N22" s="23"/>
+      <c r="O22" s="24"/>
+    </row>
+    <row r="23" customFormat="1" customHeight="1" spans="2:15">
+      <c r="B23" s="16"/>
+      <c r="C23" s="17"/>
+      <c r="D23" s="18"/>
+      <c r="E23" s="19"/>
+      <c r="F23" s="20"/>
+      <c r="G23" s="20"/>
+      <c r="H23" s="21"/>
+      <c r="I23" s="21"/>
+      <c r="J23" s="22"/>
+      <c r="K23" s="23"/>
+      <c r="L23" s="23"/>
+      <c r="M23" s="21"/>
+      <c r="N23" s="23"/>
+      <c r="O23" s="24"/>
+    </row>
+    <row r="24" customFormat="1" customHeight="1" spans="2:15">
+      <c r="B24" s="16"/>
+      <c r="C24" s="17"/>
+      <c r="D24" s="18"/>
+      <c r="E24" s="19"/>
+      <c r="F24" s="20"/>
+      <c r="G24" s="20"/>
+      <c r="H24" s="21"/>
+      <c r="I24" s="21"/>
+      <c r="J24" s="22"/>
+      <c r="K24" s="23"/>
+      <c r="L24" s="23"/>
+      <c r="M24" s="21"/>
+      <c r="N24" s="23"/>
+      <c r="O24" s="24"/>
+    </row>
+    <row r="25" customFormat="1" customHeight="1" spans="2:15">
+      <c r="B25" s="16"/>
+      <c r="C25" s="17"/>
+      <c r="D25" s="18"/>
+      <c r="E25" s="19"/>
+      <c r="F25" s="20"/>
+      <c r="G25" s="20"/>
+      <c r="H25" s="21"/>
+      <c r="I25" s="21"/>
+      <c r="J25" s="22"/>
+      <c r="K25" s="23"/>
+      <c r="L25" s="23"/>
+      <c r="M25" s="21"/>
+      <c r="N25" s="23"/>
+      <c r="O25" s="24"/>
+    </row>
+    <row r="26" customFormat="1" customHeight="1" spans="2:15">
+      <c r="B26" s="16"/>
+      <c r="C26" s="17"/>
+      <c r="D26" s="18"/>
+      <c r="E26" s="19"/>
+      <c r="F26" s="20"/>
+      <c r="G26" s="20"/>
+      <c r="H26" s="21"/>
+      <c r="I26" s="21"/>
+      <c r="J26" s="22"/>
+      <c r="K26" s="23"/>
+      <c r="L26" s="23"/>
+      <c r="M26" s="21"/>
+      <c r="N26" s="23"/>
+      <c r="O26" s="24"/>
+    </row>
+    <row r="27" customHeight="1" spans="2:15">
+      <c r="B27" s="16" t="s">
+        <v>17</v>
+      </c>
+      <c r="C27" s="25"/>
+      <c r="D27" s="26"/>
+      <c r="E27" s="25"/>
+      <c r="F27" s="25"/>
+      <c r="G27" s="25"/>
+      <c r="H27" s="25"/>
+      <c r="I27" s="27"/>
+      <c r="J27" s="27"/>
+      <c r="K27" s="28">
+        <f>SUM(K5:K26)</f>
+        <v>0</v>
+      </c>
+      <c r="L27" s="28">
+        <f>SUM(L5:L26)</f>
+        <v>0</v>
+      </c>
+      <c r="M27" s="28"/>
+      <c r="N27" s="28">
+        <f>SUM(N5:N26)</f>
+        <v>0</v>
+      </c>
       <c r="O27" s="29"/>
-    </row>
-    <row r="28" s="1" customFormat="1" customHeight="1" spans="2:15">
-      <c r="B28" s="13" t="s">
-        <v>17</v>
-      </c>
-      <c r="C28" s="19"/>
-      <c r="D28" s="20"/>
-      <c r="E28" s="19"/>
-      <c r="F28" s="19"/>
-      <c r="G28" s="19"/>
-      <c r="H28" s="19"/>
-      <c r="I28" s="30"/>
-      <c r="J28" s="30"/>
-      <c r="K28" s="31">
-        <f t="shared" ref="K28:N28" si="0">SUM(K5:K27)</f>
-        <v>0</v>
-      </c>
-      <c r="L28" s="31">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="M28" s="31"/>
-      <c r="N28" s="31">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="O28" s="32">
-        <v>5</v>
-      </c>
     </row>
   </sheetData>
   <mergeCells count="1">
